--- a/error_counts/biodivner/Meta-Llama-3.1-70B-Instruct/similarity_3_parsed_output/tokens_potential.xlsx
+++ b/error_counts/biodivner/Meta-Llama-3.1-70B-Instruct/similarity_3_parsed_output/tokens_potential.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C430"/>
+  <dimension ref="A1:C429"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2643,7 +2643,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t xml:space="preserve"> vaisala sensor</t>
+          <t>vaisala sensor</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -2652,13 +2652,13 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>vaisala sensor</t>
+          <t>tipping-bucket rain gauge</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -2667,33 +2667,33 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>tipping-bucket rain gauge</t>
+          <t>sarma</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>sarma</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C151" t="n">
@@ -2703,7 +2703,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>the Balkans</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -2718,12 +2718,12 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>the Balkans</t>
+          <t>meat</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C153" t="n">
@@ -2733,7 +2733,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>meat</t>
+          <t>seasoning plants</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -2748,12 +2748,12 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>seasoning plants</t>
+          <t>the Middle Eastern</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C155" t="n">
@@ -2763,7 +2763,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>the Middle Eastern</t>
+          <t>South-Eastern European</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -2778,12 +2778,12 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>South-Eastern European</t>
+          <t>inland water bodies</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C157" t="n">
@@ -2793,7 +2793,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>inland water bodies</t>
+          <t>open space</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -2808,7 +2808,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>open space</t>
+          <t>the shoreline</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -2823,12 +2823,12 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>the shoreline</t>
+          <t>species of two speciose subfamilies of ACG skipper butterflies (Hesperiidae)</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C160" t="n">
@@ -2838,12 +2838,12 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>species of two speciose subfamilies of ACG skipper butterflies (Hesperiidae)</t>
+          <t>barcoding</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C161" t="n">
@@ -2853,22 +2853,22 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>barcoding</t>
+          <t>Arthropod species or morphospecies</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Arthropod species or morphospecies</t>
+          <t>Crematogaster cf</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -2877,13 +2877,13 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Crematogaster cf</t>
+          <t>earthworm species</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -2898,12 +2898,12 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>earthworm species</t>
+          <t>lysozyme</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C165" t="n">
@@ -2913,7 +2913,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>lysozyme</t>
+          <t>pattern recognition protein CCF</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -2928,7 +2928,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>pattern recognition protein CCF</t>
+          <t>lysenins</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -2943,7 +2943,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>lysenins</t>
+          <t>fetidin</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -2958,12 +2958,12 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>fetidin</t>
+          <t>A. cerana</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C169" t="n">
@@ -2973,12 +2973,12 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A. cerana</t>
+          <t>mtDNA</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C170" t="n">
@@ -2988,12 +2988,12 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>mtDNA</t>
+          <t>occurrence</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C171" t="n">
@@ -3003,12 +3003,12 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>occurrence</t>
+          <t>the USA</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C172" t="n">
@@ -3018,12 +3018,12 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>the USA</t>
+          <t>litter thrips</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C173" t="n">
@@ -3033,12 +3033,12 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>litter thrips</t>
+          <t>plots</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C174" t="n">
@@ -3048,12 +3048,12 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>plots</t>
+          <t>tropics</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C175" t="n">
@@ -3063,7 +3063,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>tropics</t>
+          <t>subtropics</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -3078,12 +3078,12 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>subtropics</t>
+          <t>temperate region</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C177" t="n">
@@ -3093,7 +3093,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>temperate region</t>
+          <t>tropical zones</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -3108,12 +3108,12 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>tropical zones</t>
+          <t>Comparative Study Plots</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C179" t="n">
@@ -3123,7 +3123,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Comparative Study Plots</t>
+          <t>Soil Science</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -3138,7 +3138,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Soil Science</t>
+          <t>Geoecology</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -3153,7 +3153,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Geoecology</t>
+          <t>Tübingen</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -3168,7 +3168,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Tübingen</t>
+          <t>Rümelinstr</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -3183,7 +3183,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Rümelinstr</t>
+          <t>Japanese waters</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -3198,12 +3198,12 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Japanese waters</t>
+          <t>marine biodiversity</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C185" t="n">
@@ -3213,12 +3213,12 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>marine biodiversity</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C186" t="n">
@@ -3228,42 +3228,42 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>biodiversity change</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>biodiversity change</t>
+          <t>landscapes</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C188" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>landscapes</t>
+          <t>fragmentation threshold</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C189" t="n">
@@ -3273,7 +3273,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>fragmentation threshold</t>
+          <t>ecological resilience</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -3288,12 +3288,12 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>ecological resilience</t>
+          <t>biodiversity</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C191" t="n">
@@ -3303,12 +3303,12 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>biodiversity</t>
+          <t>coral reef wildlife species</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C192" t="n">
@@ -3318,12 +3318,12 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>coral reef wildlife species</t>
+          <t>data</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C193" t="n">
@@ -3333,12 +3333,12 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>time</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C194" t="n">
@@ -3348,12 +3348,12 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>time</t>
+          <t>spatial</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C195" t="n">
@@ -3363,12 +3363,12 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>spatial</t>
+          <t>climatic</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C196" t="n">
@@ -3378,12 +3378,12 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>climatic</t>
+          <t>Bootless Bay</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C197" t="n">
@@ -3393,7 +3393,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Bootless Bay</t>
+          <t>Port Moresby</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -3408,7 +3408,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Port Moresby</t>
+          <t>Papua New Guinea</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -3423,12 +3423,12 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Papua New Guinea</t>
+          <t>human population density</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C200" t="n">
@@ -3438,12 +3438,12 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>human population density</t>
+          <t>marine area</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C201" t="n">
@@ -3453,12 +3453,12 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>marine area</t>
+          <t>Jiangxi Province</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C202" t="n">
@@ -3468,12 +3468,12 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Jiangxi Province</t>
+          <t>Alexandra-Maria Klein</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C203" t="n">
@@ -3483,22 +3483,22 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Alexandra-Maria Klein</t>
+          <t>Institute of Ecology and Environmental Chemistry</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C204" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Institute of Ecology and Environmental Chemistry</t>
+          <t>Section Ecosystem Functions</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -3513,7 +3513,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Section Ecosystem Functions</t>
+          <t>Leuphana University of Lueneburg</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -3528,27 +3528,27 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Leuphana University of Lueneburg</t>
+          <t>Scharnhorststr</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C207" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Scharnhorststr</t>
+          <t>Plots</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C208" t="n">
@@ -3558,12 +3558,12 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Plots</t>
+          <t>Gutianshan Nature Reserve</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C209" t="n">
@@ -3573,7 +3573,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Gutianshan Nature Reserve</t>
+          <t>Habitat_OffshorePigeonPoint.zip</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -3588,12 +3588,12 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Habitat_OffshorePigeonPoint.zip</t>
+          <t>toxicokinetic properties</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C211" t="n">
@@ -3603,22 +3603,22 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>toxicokinetic properties</t>
+          <t>vaginal microbiota</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C212" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>vaginal microbiota</t>
+          <t>guinea pig</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -3627,13 +3627,13 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>guinea pig</t>
+          <t>humans</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -3648,12 +3648,12 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>humans</t>
+          <t>chlamydial infections</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C215" t="n">
@@ -3663,42 +3663,42 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>chlamydial infections</t>
+          <t>higher arthropod taxa</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C216" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>higher arthropod taxa</t>
+          <t>circular plot</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C217" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>circular plot</t>
+          <t>neighbour indices</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C218" t="n">
@@ -3708,7 +3708,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>neighbour indices</t>
+          <t>Density measure</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -3723,7 +3723,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Density measure</t>
+          <t>neigh_a</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -3732,13 +3732,13 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>neigh_a</t>
+          <t>Measure of density</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -3747,18 +3747,18 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Measure of density</t>
+          <t>Main Experimental sites</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C222" t="n">
@@ -3768,12 +3768,12 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Main Experimental sites</t>
+          <t>secondary compound</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C223" t="n">
@@ -3783,7 +3783,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>secondary compound</t>
+          <t>total phenolic and tannin concentrations</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -3798,12 +3798,12 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>total phenolic and tannin concentrations</t>
+          <t>stomata</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C225" t="n">
@@ -3813,12 +3813,12 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>stomata</t>
+          <t>contraction</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C226" t="n">
@@ -3828,12 +3828,12 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>contraction</t>
+          <t>tropical and sub-tropical forest biodiversity</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C227" t="n">
@@ -3843,12 +3843,12 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>tropical and sub-tropical forest biodiversity</t>
+          <t>Habitat loss and degradation</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C228" t="n">
@@ -3858,7 +3858,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Habitat loss and degradation</t>
+          <t>agricultural expansion and intensification</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -3873,12 +3873,12 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>agricultural expansion and intensification</t>
+          <t>organic carbon fluxes</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C230" t="n">
@@ -3888,12 +3888,12 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>organic carbon fluxes</t>
+          <t>deep-sea biodiversity</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C231" t="n">
@@ -3903,12 +3903,12 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>deep-sea biodiversity</t>
+          <t>basins</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C232" t="n">
@@ -3918,27 +3918,27 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>basins</t>
+          <t>Specific leaf area</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C233" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Specific leaf area</t>
+          <t>LDMC</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C234" t="n">
@@ -3948,12 +3948,12 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>LDMC</t>
+          <t>Elemental Analyzer</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C235" t="n">
@@ -3963,7 +3963,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Elemental Analyzer</t>
+          <t>Inductively coupled plasma optical emisssion spectrometer</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -3972,13 +3972,13 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Inductively coupled plasma optical emisssion spectrometer</t>
+          <t>Atom absorption spectrometer</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
@@ -3987,28 +3987,28 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Atom absorption spectrometer</t>
+          <t>Potassium</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C238" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Potassium</t>
+          <t>Magnesium</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
@@ -4023,7 +4023,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Magnesium</t>
+          <t>Calcium</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
@@ -4032,13 +4032,13 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Calcium</t>
+          <t>Aluminum</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -4053,7 +4053,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Aluminum</t>
+          <t>Iron</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
@@ -4068,12 +4068,12 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Iron</t>
+          <t>Iron content</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C243" t="n">
@@ -4083,12 +4083,12 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Iron content</t>
+          <t>Manganese</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C244" t="n">
@@ -4098,7 +4098,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Manganese</t>
+          <t>Sulfur</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
@@ -4113,7 +4113,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Sulfur</t>
+          <t>Zinc</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
@@ -4128,7 +4128,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Zinc</t>
+          <t>Cobalt</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
@@ -4143,7 +4143,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Cobalt</t>
+          <t>Copper</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
@@ -4158,7 +4158,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Copper</t>
+          <t>Lead</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
@@ -4173,7 +4173,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Lead</t>
+          <t>Strontium</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
@@ -4188,7 +4188,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Strontium</t>
+          <t>Chromium</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
@@ -4203,12 +4203,12 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Chromium</t>
+          <t>Chromium content</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C252" t="n">
@@ -4218,12 +4218,12 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Chromium content</t>
+          <t>Nickel</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C253" t="n">
@@ -4233,7 +4233,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Nickel</t>
+          <t>Cadmium</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
@@ -4248,37 +4248,37 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Cadmium</t>
+          <t>Microscope</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C255" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Microscope</t>
+          <t>Stomata density</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C256" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Stomata density</t>
+          <t>Stomatal density</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
@@ -4293,7 +4293,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Stomatal density</t>
+          <t>Stomata size</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
@@ -4302,33 +4302,33 @@
         </is>
       </c>
       <c r="C258" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Stomata size</t>
+          <t>Phenolics</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C259" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Phenolics</t>
+          <t>honey bee holobiont</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C260" t="n">
@@ -4338,12 +4338,12 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>honey bee holobiont</t>
+          <t>base</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C261" t="n">
@@ -4353,12 +4353,12 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>Angle</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C262" t="n">
@@ -4368,7 +4368,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Angle</t>
+          <t>angle</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
@@ -4383,12 +4383,12 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>angle</t>
+          <t>Collection</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C264" t="n">
@@ -4398,7 +4398,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Collection</t>
+          <t>Census</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
@@ -4413,12 +4413,12 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Census</t>
+          <t>Tropical South America</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C266" t="n">
@@ -4428,12 +4428,12 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Tropical South America</t>
+          <t>tropical ecosystems</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C267" t="n">
@@ -4443,12 +4443,12 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>tropical ecosystems</t>
+          <t>biodiversity</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C268" t="n">
@@ -4458,12 +4458,12 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>biodiversity</t>
+          <t>western Mediterranean shelves</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C269" t="n">
@@ -4473,7 +4473,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>western Mediterranean shelves</t>
+          <t>Strait of Gibraltar</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
@@ -4488,7 +4488,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Strait of Gibraltar</t>
+          <t>western African coast</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
@@ -4503,7 +4503,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>western African coast</t>
+          <t>Adriatic Sea</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
@@ -4518,12 +4518,12 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Adriatic Sea</t>
+          <t>density levels</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C273" t="n">
@@ -4533,12 +4533,12 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>density levels</t>
+          <t>CSPs</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C274" t="n">
@@ -4548,7 +4548,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>CSPs</t>
+          <t>pitfall traps</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
@@ -4563,7 +4563,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>pitfall traps</t>
+          <t>Ecosystem Functions</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
@@ -4578,12 +4578,12 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>Ecosystem Functions</t>
+          <t>invertebrates</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C277" t="n">
@@ -4593,12 +4593,12 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>invertebrates</t>
+          <t>tropical and sub-tropical forests</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C278" t="n">
@@ -4608,12 +4608,12 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>tropical and sub-tropical forests</t>
+          <t>Flora of China</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C279" t="n">
@@ -4623,22 +4623,22 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Flora of China</t>
+          <t>Waikato</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C280" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Waikato</t>
+          <t>Waikato region</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
@@ -4647,18 +4647,18 @@
         </is>
       </c>
       <c r="C281" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Waikato region</t>
+          <t>soil invertebrates</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C282" t="n">
@@ -4668,12 +4668,12 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>soil invertebrates</t>
+          <t>earthworm invasion</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C283" t="n">
@@ -4683,12 +4683,12 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>earthworm invasion</t>
+          <t>anecic and endogeic earthworms</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C284" t="n">
@@ -4698,12 +4698,12 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>anecic and endogeic earthworms</t>
+          <t>diversity and density</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C285" t="n">
@@ -4713,12 +4713,12 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>diversity and density</t>
+          <t>effects</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C286" t="n">
@@ -4728,12 +4728,12 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>effects</t>
+          <t>threatened and invasive species</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C287" t="n">
@@ -4743,12 +4743,12 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>threatened and invasive species</t>
+          <t>snow</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C288" t="n">
@@ -4758,12 +4758,12 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>snow</t>
+          <t>vertebrate animals</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C289" t="n">
@@ -4773,12 +4773,12 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>vertebrate animals</t>
+          <t>LÃƒÂ¼neburg</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C290" t="n">
@@ -4788,12 +4788,12 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>LÃƒÂ¼neburg</t>
+          <t>land-use</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C291" t="n">
@@ -4803,12 +4803,12 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>land-use</t>
+          <t>soil biota</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C292" t="n">
@@ -4818,12 +4818,12 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>soil biota</t>
+          <t>environmental changes</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C293" t="n">
@@ -4833,22 +4833,22 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>environmental changes</t>
+          <t>Chlamydia</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C294" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>Chlamydia</t>
+          <t>caviae</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
@@ -4857,18 +4857,18 @@
         </is>
       </c>
       <c r="C295" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>caviae</t>
+          <t>infection</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C296" t="n">
@@ -4878,12 +4878,12 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>infection</t>
+          <t>pathogens</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C297" t="n">
@@ -4893,12 +4893,12 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>pathogens</t>
+          <t>biodiversity experiment</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C298" t="n">
@@ -4908,12 +4908,12 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>biodiversity experiment</t>
+          <t>decomposer</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C299" t="n">
@@ -4923,12 +4923,12 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>decomposer</t>
+          <t>grain size classes</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C300" t="n">
@@ -4938,12 +4938,12 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>grain size classes</t>
+          <t>fine earth</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C301" t="n">
@@ -4953,12 +4953,12 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>fine earth</t>
+          <t>forest biodiversity</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C302" t="n">
@@ -4968,12 +4968,12 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>forest biodiversity</t>
+          <t>CWD</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C303" t="n">
@@ -4983,12 +4983,12 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>CWD</t>
+          <t>marine conservation</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C304" t="n">
@@ -4998,12 +4998,12 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>marine conservation</t>
+          <t>amoebae</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C305" t="n">
@@ -5013,12 +5013,12 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>amoebae</t>
+          <t>drinking water</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C306" t="n">
@@ -5028,12 +5028,12 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>drinking water</t>
+          <t>nawai</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C307" t="n">
@@ -5043,12 +5043,12 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>nawai</t>
+          <t>Arthropod</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C308" t="n">
@@ -5058,12 +5058,12 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Arthropod</t>
+          <t>Gutianshan Nature Reserve</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C309" t="n">
@@ -5073,12 +5073,12 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>Gutianshan Nature Reserve</t>
+          <t>trait variation</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C310" t="n">
@@ -5088,7 +5088,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>trait variation</t>
+          <t>trade-off</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
@@ -5103,7 +5103,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>trade-off</t>
+          <t>carbon allocation</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
@@ -5118,12 +5118,12 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>carbon allocation</t>
+          <t>compound</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C313" t="n">
@@ -5133,12 +5133,12 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>compound</t>
+          <t>phenomena</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C314" t="n">
@@ -5148,7 +5148,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>phenomena</t>
+          <t>CSPs</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
@@ -5157,28 +5157,28 @@
         </is>
       </c>
       <c r="C315" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>CSPs</t>
+          <t>Conterminous United States</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C316" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>Conterminous United States</t>
+          <t>Sierra Leonean national park</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
@@ -5193,12 +5193,12 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>Sierra Leonean national park</t>
+          <t>Shannon-Wiener biodiversity indices</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C318" t="n">
@@ -5208,12 +5208,12 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Shannon-Wiener biodiversity indices</t>
+          <t>Anja FankhÃ¤nel</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C319" t="n">
@@ -5223,7 +5223,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>Anja FankhÃ¤nel</t>
+          <t>Christian and Goddert</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
@@ -5238,12 +5238,12 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>Christian and Goddert</t>
+          <t>fungal abundance</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C321" t="n">
@@ -5253,7 +5253,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>fungal abundance</t>
+          <t>environmental parameters</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
@@ -5268,12 +5268,12 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>environmental parameters</t>
+          <t>Intermountain West</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C323" t="n">
@@ -5283,12 +5283,12 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Intermountain West</t>
+          <t>branches</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C324" t="n">
@@ -5298,7 +5298,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>branches</t>
+          <t>Hemiptera</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
@@ -5313,12 +5313,12 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>Hemiptera</t>
+          <t>grain size distribution</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C326" t="n">
@@ -5328,12 +5328,12 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>grain size distribution</t>
+          <t>Levantine Basin</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C327" t="n">
@@ -5343,12 +5343,12 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>Levantine Basin</t>
+          <t>Species_Tax</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C328" t="n">
@@ -5358,12 +5358,12 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Species_Tax</t>
+          <t>functional trait</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C329" t="n">
@@ -5373,7 +5373,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>functional trait</t>
+          <t>N-fixation</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
@@ -5388,7 +5388,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>N-fixation</t>
+          <t>species origin</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
@@ -5403,12 +5403,12 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>species origin</t>
+          <t>forest restoration</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C332" t="n">
@@ -5418,7 +5418,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>forest restoration</t>
+          <t>community evolution models</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
@@ -5433,12 +5433,12 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>community evolution models</t>
+          <t>holobiont communities</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C334" t="n">
@@ -5448,12 +5448,12 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>holobiont communities</t>
+          <t>human population</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C335" t="n">
@@ -5463,12 +5463,12 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>human population</t>
+          <t>land-use</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C336" t="n">
@@ -5478,12 +5478,12 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>land-use</t>
+          <t>invasive species</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C337" t="n">
@@ -5493,12 +5493,12 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>invasive species</t>
+          <t>habitat fragmentation</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C338" t="n">
@@ -5508,12 +5508,12 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>habitat fragmentation</t>
+          <t>protected areas</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C339" t="n">
@@ -5523,12 +5523,12 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>protected areas</t>
+          <t>endangered species</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C340" t="n">
@@ -5538,12 +5538,12 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>endangered species</t>
+          <t>environments</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C341" t="n">
@@ -5553,12 +5553,12 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>environments</t>
+          <t>CSPs</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C342" t="n">
@@ -5568,12 +5568,12 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>CSPs</t>
+          <t>guinea pig-C. caviae model</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C343" t="n">
@@ -5583,12 +5583,12 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>guinea pig-C. caviae model</t>
+          <t>logged forest</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C344" t="n">
@@ -5598,7 +5598,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>logged forest</t>
+          <t>monocultures of ten and seven tree species</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
@@ -5613,12 +5613,12 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>monocultures of ten and seven tree species</t>
+          <t>juveniles of all species</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C346" t="n">
@@ -5628,12 +5628,12 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>juveniles of all species</t>
+          <t>monocultures</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C347" t="n">
@@ -5643,12 +5643,12 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>monocultures</t>
+          <t>levels of planting density</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C348" t="n">
@@ -5658,12 +5658,12 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>levels of planting density</t>
+          <t>common garden</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C349" t="n">
@@ -5673,7 +5673,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>common garden</t>
+          <t>Sand-filled splash cups</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
@@ -5688,7 +5688,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>Sand-filled splash cups</t>
+          <t>ecotones</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
@@ -5703,12 +5703,12 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>ecotones</t>
+          <t>species migrations</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C352" t="n">
@@ -5718,12 +5718,12 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>species migrations</t>
+          <t>species distinction</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C353" t="n">
@@ -5733,12 +5733,12 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>species distinction</t>
+          <t>microbiology</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C354" t="n">
@@ -5748,7 +5748,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>microbiology</t>
+          <t>broad-leaved forests</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
@@ -5763,12 +5763,12 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>broad-leaved forests</t>
+          <t>carbon-based leaf defence traits</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C356" t="n">
@@ -5778,7 +5778,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>carbon-based leaf defence traits</t>
+          <t>Samplecode</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
@@ -5787,13 +5787,13 @@
         </is>
       </c>
       <c r="C357" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>Samplecode</t>
+          <t>Identifier</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
@@ -5802,13 +5802,13 @@
         </is>
       </c>
       <c r="C358" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>Identifier</t>
+          <t>Sample Collector</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
@@ -5817,13 +5817,13 @@
         </is>
       </c>
       <c r="C359" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>Sample Collector</t>
+          <t>Sample.Collector</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
@@ -5832,18 +5832,18 @@
         </is>
       </c>
       <c r="C360" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>Sample.Collector</t>
+          <t>fallow</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C361" t="n">
@@ -5853,12 +5853,12 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>fallow</t>
+          <t>disturbance</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C362" t="n">
@@ -5868,12 +5868,12 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>disturbance</t>
+          <t>marine ecosystem</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C363" t="n">
@@ -5883,12 +5883,12 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>marine ecosystem</t>
+          <t>taxa</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C364" t="n">
@@ -5898,7 +5898,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>taxa</t>
+          <t>Organism</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
@@ -5913,7 +5913,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>Organism</t>
+          <t>fish health unit</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
@@ -5928,12 +5928,12 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>fish health unit</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C367" t="n">
@@ -5943,22 +5943,22 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>finfish</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C368" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>finfish</t>
+          <t>trophobioses</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
@@ -5967,18 +5967,18 @@
         </is>
       </c>
       <c r="C369" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>trophobioses</t>
+          <t>Biodiversity Conservation Hotspot</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C370" t="n">
@@ -5988,12 +5988,12 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>Biodiversity Conservation Hotspot</t>
+          <t>dbh</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C371" t="n">
@@ -6003,7 +6003,7 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>dbh</t>
+          <t>mean upper canopy height</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
@@ -6018,7 +6018,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>mean upper canopy height</t>
+          <t>slope inclination</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
@@ -6033,12 +6033,12 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>slope inclination</t>
+          <t>pitfall trap</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C374" t="n">
@@ -6048,12 +6048,12 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>pitfall trap</t>
+          <t>Species Helper column</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C375" t="n">
@@ -6063,12 +6063,12 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>Species Helper column</t>
+          <t>BA14</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C376" t="n">
@@ -6078,27 +6078,27 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Species name</t>
+          <t>VT Biodiversity Project</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C377" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>BA14</t>
+          <t>Plant and Animal Species Atlas</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C378" t="n">
@@ -6108,22 +6108,22 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>VT Biodiversity Project</t>
+          <t>vascular plants</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C379" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>vascular plants</t>
+          <t>ferns</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
@@ -6138,7 +6138,7 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>ferns</t>
+          <t>Insect Herbivore</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
@@ -6153,7 +6153,7 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>Insect Herbivore</t>
+          <t>Microbiome</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
@@ -6168,12 +6168,12 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>Microbiome</t>
+          <t>plant cell walls</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C383" t="n">
@@ -6183,42 +6183,42 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>plant cell walls</t>
+          <t>Woody debris</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C384" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>Woody debris</t>
+          <t>plant biodiversity</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C385" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>plant biodiversity</t>
+          <t>Anthropocene</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C386" t="n">
@@ -6228,7 +6228,7 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>Anthropocene</t>
+          <t>anthropogenic biodiversity change</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
@@ -6243,12 +6243,12 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>anthropogenic biodiversity change</t>
+          <t>old</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C388" t="n">
@@ -6258,12 +6258,12 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>mutualistic antâ€“hemipteran interactions</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C389" t="n">
@@ -6273,37 +6273,37 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>mutualistic antâ€“hemipteran interactions</t>
+          <t>Tree or shrub</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C390" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>Tree or shrub</t>
+          <t>site plot</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C391" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>site plot</t>
+          <t>North</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
@@ -6318,7 +6318,7 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>west</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
@@ -6333,12 +6333,12 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>west</t>
+          <t>fetidin/lysenins</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C394" t="n">
@@ -6348,12 +6348,12 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>fetidin/lysenins</t>
+          <t>E. fetida</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C395" t="n">
@@ -6363,7 +6363,7 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>E. fetida</t>
+          <t>compost microbiota</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
@@ -6378,12 +6378,12 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>compost microbiota</t>
+          <t>gene expression</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C397" t="n">
@@ -6393,7 +6393,7 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>gene expression</t>
+          <t>expression</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
@@ -6408,12 +6408,12 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>expression</t>
+          <t>individuals</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C399" t="n">
@@ -6423,12 +6423,12 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>individuals</t>
+          <t>carbon footprint</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C400" t="n">
@@ -6438,12 +6438,12 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>carbon footprint</t>
+          <t>biodiversity changes</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C401" t="n">
@@ -6453,12 +6453,12 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>biodiversity changes</t>
+          <t>human populations</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C402" t="n">
@@ -6468,12 +6468,12 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>human populations</t>
+          <t>Anthropocene</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C403" t="n">
@@ -6483,12 +6483,12 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>Anthropocene</t>
+          <t>BDE-209</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C404" t="n">
@@ -6498,12 +6498,12 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>BDE-209</t>
+          <t>forestry</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C405" t="n">
@@ -6513,7 +6513,7 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>forestry</t>
+          <t>biodiversity</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
@@ -6528,12 +6528,12 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>biodiversity</t>
+          <t>annual mortality rate</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C407" t="n">
@@ -6543,7 +6543,7 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>annual mortality rate</t>
+          <t>species abundance</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
@@ -6558,7 +6558,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>species abundance</t>
+          <t>beta-diversity</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
@@ -6573,12 +6573,12 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>beta-diversity</t>
+          <t>target group</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C410" t="n">
@@ -6588,7 +6588,7 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>target group</t>
+          <t>mutualistic ant-hemipteran interactions</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
@@ -6603,12 +6603,12 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>mutualistic ant-hemipteran interactions</t>
+          <t>Proceedings B</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C412" t="n">
@@ -6618,7 +6618,7 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>Proceedings B</t>
+          <t>German Centre for Integrative Biodiversity Research</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
@@ -6633,12 +6633,12 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>German Centre for Integrative Biodiversity Research</t>
+          <t>chemolithoautotrophic</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C414" t="n">
@@ -6648,7 +6648,7 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>chemolithoautotrophic</t>
+          <t>photoautotrophic</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
@@ -6663,7 +6663,7 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>photoautotrophic</t>
+          <t>bacterial diversity</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
@@ -6678,12 +6678,12 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>bacterial diversity</t>
+          <t>biochemical carbon cycling</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C417" t="n">
@@ -6693,12 +6693,12 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>biochemical carbon cycling</t>
+          <t>barren saline soils</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C418" t="n">
@@ -6708,12 +6708,12 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>barren saline soils</t>
+          <t>barcode</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C419" t="n">
@@ -6723,12 +6723,12 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>barcode</t>
+          <t>adult genitalia variation</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C420" t="n">
@@ -6738,12 +6738,12 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>adult genitalia variation</t>
+          <t>caterpillar ecology</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C421" t="n">
@@ -6753,12 +6753,12 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>caterpillar ecology</t>
+          <t>lithology</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C422" t="n">
@@ -6768,7 +6768,7 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>lithology</t>
+          <t>lithologies</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
@@ -6783,12 +6783,12 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>lithologies</t>
+          <t>biodiversity-ecosystem function</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C424" t="n">
@@ -6798,12 +6798,12 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>biodiversity-ecosystem function</t>
+          <t>MAR</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C425" t="n">
@@ -6813,7 +6813,7 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>MAR</t>
+          <t>North Atlantic</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
@@ -6828,12 +6828,12 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>North Atlantic</t>
+          <t>Microbial diversity</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C427" t="n">
@@ -6843,45 +6843,30 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>Microbial diversity</t>
+          <t>soil layers</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C428" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>soil layers</t>
+          <t>bioturbation</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C429" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="430">
-      <c r="A430" t="inlineStr">
-        <is>
-          <t>bioturbation</t>
-        </is>
-      </c>
-      <c r="B430" t="inlineStr">
-        <is>
-          <t>PHENOMENA</t>
-        </is>
-      </c>
-      <c r="C430" t="n">
         <v>1</v>
       </c>
     </row>
